--- a/docss/trend/czechia/E_neuron.xlsx
+++ b/docss/trend/czechia/E_neuron.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Elena\Desktop\IC3-Design\docs\trend\czechia\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ELENA\Documents\IC3\ic3desarrollo\docss\trend\czechia\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -221,7 +221,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -232,9 +232,6 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1580,10 +1577,13 @@
   <dimension ref="A1:D14"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2:D14"/>
+      <selection activeCell="E1" sqref="E1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="6" max="6" width="11.85546875" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
@@ -1603,182 +1603,182 @@
       <c r="A2">
         <v>2002</v>
       </c>
-      <c r="B2" s="5">
-        <v>0.3247101791203022</v>
-      </c>
-      <c r="C2" s="5">
-        <v>0.41087405942380428</v>
-      </c>
-      <c r="D2" s="5">
-        <v>0.24093414098024368</v>
+      <c r="B2">
+        <v>0.32500000000000001</v>
+      </c>
+      <c r="C2">
+        <v>0.41099999999999998</v>
+      </c>
+      <c r="D2">
+        <v>0.24099999999999999</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>2003</v>
       </c>
-      <c r="B3" s="5">
-        <v>0.34308978402987123</v>
-      </c>
-      <c r="C3" s="5">
-        <v>0.52036223374307156</v>
-      </c>
-      <c r="D3" s="5">
-        <v>0.17013754416257143</v>
+      <c r="B3">
+        <v>0.34300000000000003</v>
+      </c>
+      <c r="C3">
+        <v>0.52</v>
+      </c>
+      <c r="D3">
+        <v>0.17</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>2004</v>
       </c>
-      <c r="B4" s="5">
-        <v>0.40525550814345479</v>
-      </c>
-      <c r="C4" s="5">
-        <v>0.49652682989835739</v>
-      </c>
-      <c r="D4" s="5">
-        <v>0.35421230830252171</v>
+      <c r="B4">
+        <v>0.40500000000000003</v>
+      </c>
+      <c r="C4">
+        <v>0.497</v>
+      </c>
+      <c r="D4">
+        <v>0.35399999999999998</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>2005</v>
       </c>
-      <c r="B5" s="5">
-        <v>0.41352439858019352</v>
-      </c>
-      <c r="C5" s="5">
-        <v>0.54959405958652496</v>
-      </c>
-      <c r="D5" s="5">
-        <v>0.30324848461896181</v>
+      <c r="B5">
+        <v>0.41399999999999998</v>
+      </c>
+      <c r="C5">
+        <v>0.55000000000000004</v>
+      </c>
+      <c r="D5">
+        <v>0.30299999999999999</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>2006</v>
       </c>
-      <c r="B6" s="5">
-        <v>0.45534765627235174</v>
-      </c>
-      <c r="C6" s="5">
-        <v>0.5790519155561924</v>
-      </c>
-      <c r="D6" s="5">
-        <v>0.33780581597238779</v>
+      <c r="B6">
+        <v>0.45500000000000002</v>
+      </c>
+      <c r="C6">
+        <v>0.57899999999999996</v>
+      </c>
+      <c r="D6">
+        <v>0.33800000000000002</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>2007</v>
       </c>
-      <c r="B7" s="5">
-        <v>0.39651643484830856</v>
-      </c>
-      <c r="C7" s="5">
-        <v>0.42288780771195889</v>
-      </c>
-      <c r="D7" s="5">
-        <v>0.3815669952891767</v>
+      <c r="B7">
+        <v>0.39700000000000002</v>
+      </c>
+      <c r="C7">
+        <v>0.42299999999999999</v>
+      </c>
+      <c r="D7">
+        <v>0.38200000000000001</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>2008</v>
       </c>
-      <c r="B8" s="5">
-        <v>0.49359057657420635</v>
-      </c>
-      <c r="C8" s="5">
-        <v>0.47816230170428753</v>
-      </c>
-      <c r="D8" s="5">
-        <v>0.51201668195426464</v>
+      <c r="B8">
+        <v>0.49399999999999999</v>
+      </c>
+      <c r="C8">
+        <v>0.47799999999999998</v>
+      </c>
+      <c r="D8">
+        <v>0.51200000000000001</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>2009</v>
       </c>
-      <c r="B9" s="5">
-        <v>0.42174976598471403</v>
-      </c>
-      <c r="C9" s="5">
-        <v>0.47359431069344282</v>
-      </c>
-      <c r="D9" s="5">
-        <v>0.3878906425088644</v>
+      <c r="B9">
+        <v>0.42199999999999999</v>
+      </c>
+      <c r="C9">
+        <v>0.47399999999999998</v>
+      </c>
+      <c r="D9">
+        <v>0.38800000000000001</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>2010</v>
       </c>
-      <c r="B10" s="5">
-        <v>0.41562874335795641</v>
-      </c>
-      <c r="C10" s="5">
-        <v>0.50816711597144604</v>
-      </c>
-      <c r="D10" s="5">
-        <v>0.34601776674389839</v>
+      <c r="B10">
+        <v>0.41599999999999998</v>
+      </c>
+      <c r="C10">
+        <v>0.50800000000000001</v>
+      </c>
+      <c r="D10">
+        <v>0.34599999999999997</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>2011</v>
       </c>
-      <c r="B11" s="5">
-        <v>0.38416723627597094</v>
-      </c>
-      <c r="C11" s="5">
-        <v>0.3390626972541213</v>
-      </c>
-      <c r="D11" s="5">
-        <v>0.42874977923929691</v>
+      <c r="B11">
+        <v>0.38400000000000001</v>
+      </c>
+      <c r="C11">
+        <v>0.33900000000000002</v>
+      </c>
+      <c r="D11">
+        <v>0.42899999999999999</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>2012</v>
       </c>
-      <c r="B12" s="5">
-        <v>0.60373079869896173</v>
-      </c>
-      <c r="C12" s="5">
-        <v>0.72703983634710312</v>
-      </c>
-      <c r="D12" s="5">
-        <v>0.48981367330998182</v>
+      <c r="B12">
+        <v>0.60399999999999998</v>
+      </c>
+      <c r="C12">
+        <v>0.72699999999999998</v>
+      </c>
+      <c r="D12">
+        <v>0.49</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A13">
         <v>2013</v>
       </c>
-      <c r="B13" s="5">
-        <v>0.77199280587956309</v>
-      </c>
-      <c r="C13" s="5">
-        <v>0.949567093513906</v>
-      </c>
-      <c r="D13" s="5">
-        <v>0.6194179356098175</v>
+      <c r="B13">
+        <v>0.77200000000000002</v>
+      </c>
+      <c r="C13">
+        <v>0.95</v>
+      </c>
+      <c r="D13">
+        <v>0.61899999999999999</v>
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A14">
         <v>2014</v>
       </c>
-      <c r="B14" s="5">
-        <v>0.61003695800900459</v>
-      </c>
-      <c r="C14" s="5">
-        <v>0.56803745031356812</v>
-      </c>
-      <c r="D14" s="5">
-        <v>0.62986730225384235</v>
+      <c r="B14">
+        <v>0.61</v>
+      </c>
+      <c r="C14">
+        <v>0.56799999999999995</v>
+      </c>
+      <c r="D14">
+        <v>0.63</v>
       </c>
     </row>
   </sheetData>
